--- a/doc/งานท่าเรือ.xlsx
+++ b/doc/งานท่าเรือ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="274">
   <si>
     <t>รายการ</t>
   </si>
@@ -783,10 +783,61 @@
     <t>31102</t>
   </si>
   <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
+    <t>ตารางรายการประเมินค่าใช้จ่าย</t>
+  </si>
+  <si>
+    <t>รายการขอใช้บริการ</t>
+  </si>
+  <si>
+    <t>รายการ Customer</t>
+  </si>
+  <si>
+    <t>ระบบข้อมูลสารสนเทศ</t>
+  </si>
+  <si>
+    <t>20202</t>
+  </si>
+  <si>
+    <t>20303</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>10201</t>
+  </si>
+  <si>
+    <t>10202</t>
+  </si>
+  <si>
+    <t>10203</t>
+  </si>
+  <si>
+    <t>10204</t>
+  </si>
+  <si>
+    <t>10205</t>
+  </si>
+  <si>
+    <t>ตารางอัตราค่าบริการ</t>
+  </si>
+  <si>
+    <t>ตารางประเมินค่าใช้จ่าย</t>
+  </si>
+  <si>
+    <t>ระบบบริหารการท่าและระบบอนุมัติ (e-Port Management)</t>
+  </si>
+  <si>
+    <t>ระบบบริหารพื้นที่ ประโยชน์ ทสพ.-ทร.</t>
+  </si>
+  <si>
+    <t>ระบบ e-Gate</t>
+  </si>
+  <si>
+    <t>ระบบบริหารจัดการ ลูกค้า CRM</t>
+  </si>
+  <si>
+    <t>ระบบบุคลากรแรงงาน</t>
   </si>
 </sst>
 </file>
@@ -814,7 +865,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,6 +905,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1022,6 +1079,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1733,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
@@ -2878,19 +2940,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H81"/>
+  <dimension ref="A2:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="5.375" style="9" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9" style="9"/>
-    <col min="4" max="4" width="21.875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8" style="9" customWidth="1"/>
     <col min="6" max="6" width="64" style="9" customWidth="1"/>
     <col min="7" max="7" width="15.75" style="9" customWidth="1"/>
     <col min="8" max="8" width="20.25" style="9" customWidth="1"/>
@@ -3039,142 +3101,135 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="18">
+      <c r="A17" s="21"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E18" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E19" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E20" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E21" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A22" s="18">
         <v>200</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D22" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="E18" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="18" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E23" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="E19" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="18" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E24" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="C20" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="C21" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="28">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A25" s="28">
         <v>300</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B25" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C25" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="26" t="s">
+      <c r="D25" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F25" s="28" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B23" s="11"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B24" s="11"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B25" s="11"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B26" s="11"/>
       <c r="C26" s="37"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>115</v>
+      <c r="E26" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B27" s="11"/>
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
+      <c r="E27" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>111</v>
+      </c>
       <c r="G27" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>116</v>
+        <v>136</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.5">
@@ -3184,10 +3239,10 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
       <c r="G28" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.5">
@@ -3197,10 +3252,10 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
       <c r="G29" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.5">
@@ -3210,517 +3265,556 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
       <c r="G30" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="C31" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>121</v>
+      <c r="B31" s="11"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B32" s="11"/>
       <c r="C32" s="37"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B33" s="11"/>
       <c r="C33" s="37"/>
       <c r="D33" s="38"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C34" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C35" s="37"/>
       <c r="D35" s="38"/>
       <c r="E35" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.5">
+        <v>144</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C36" s="37"/>
       <c r="D36" s="38"/>
-      <c r="E36" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C37" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="E36" s="20"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C38" s="37"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="H38" s="33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="E38" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C39" s="37"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
+      <c r="E39" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C40" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>270</v>
+      </c>
       <c r="E40" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.5">
+        <v>150</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C41" s="37"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C42" s="37"/>
       <c r="D42" s="38"/>
       <c r="E42" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C44" s="37"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C45" s="37"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F45" s="32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C43" s="26" t="s">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C46" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D46" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E46" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F46" s="28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="26" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F47" s="28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="E45" s="26" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="E48" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F48" s="28" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="E46" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="E47" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="E48" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.5">
       <c r="E49" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.5">
       <c r="E50" s="26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.5">
       <c r="E51" s="26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.5">
       <c r="E52" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E53" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E54" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E55" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F55" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C53" s="29" t="s">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C56" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D56" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E56" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F56" s="30" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E54" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E55" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E56" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="F56" s="30" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.5">
       <c r="E57" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.5">
       <c r="E58" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.5">
       <c r="E59" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.5">
       <c r="E60" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E61" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E62" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E63" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F63" s="30" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C61" s="31" t="s">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C64" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D64" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E64" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="F64" s="32" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E62" s="31" t="s">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E65" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="F65" s="32" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E63" s="31" t="s">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E66" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="F63" s="32" t="s">
+      <c r="F66" s="32" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E64" s="31" t="s">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E67" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="F67" s="32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C65" s="26" t="s">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C68" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D68" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E68" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F68" s="28" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E66" s="26" t="s">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E69" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F69" s="28" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E67" s="26" t="s">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E70" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F70" s="28" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E68" s="26" t="s">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E71" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F71" s="28" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C69" s="29" t="s">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C72" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D72" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E72" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F72" s="30" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E70" s="29" t="s">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E73" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F73" s="30" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E71" s="29" t="s">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E74" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="F74" s="30" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E72" s="29" t="s">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E75" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F75" s="30" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C73" s="31" t="s">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C76" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D76" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="E73" s="31" t="s">
+      <c r="E76" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="F73" s="32" t="s">
+      <c r="F76" s="32" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E74" s="31" t="s">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E77" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="F74" s="32" t="s">
+      <c r="F77" s="32" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E75" s="31" t="s">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E78" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="32" t="s">
+      <c r="F78" s="32" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C76" s="26" t="s">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C79" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="D76" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="E76" s="26" t="s">
+      <c r="D79" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E79" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="26" t="s">
+      <c r="F79" s="26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E77" s="26" t="s">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E80" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F80" s="26" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E78" s="26" t="s">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E81" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="F78" s="26" t="s">
+      <c r="F81" s="26" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="E79" s="26" t="s">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E82" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="28" t="s">
+      <c r="F82" s="28" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C80" s="31" t="s">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C83" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D83" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="E80" s="31" t="s">
+      <c r="E83" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="F80" s="31" t="s">
+      <c r="F83" s="31" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.5">
-      <c r="E81" s="31" t="s">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="E84" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F84" s="31" t="s">
         <v>252</v>
       </c>
     </row>
